--- a/payroll_gross_all.xlsx
+++ b/payroll_gross_all.xlsx
@@ -725,7 +725,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>18625.18</v>
@@ -739,7 +739,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>15284.66</v>
@@ -753,7 +753,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>25514.43</v>
@@ -767,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>16895.14</v>
@@ -781,7 +781,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>66174.04999999999</v>
@@ -795,7 +795,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>15245.67</v>
@@ -809,7 +809,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>20200.12</v>
@@ -823,7 +823,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>17999.71</v>
@@ -837,7 +837,7 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>24196.35</v>
@@ -851,7 +851,7 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>125000</v>
@@ -865,7 +865,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>230000</v>
@@ -879,7 +879,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>19850.46</v>
@@ -893,7 +893,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>24982.37</v>
@@ -921,7 +921,7 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>15842.23</v>
@@ -935,7 +935,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24">
         <v>17708.77</v>
@@ -949,7 +949,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>23101.36</v>
@@ -977,7 +977,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>20250.25</v>
@@ -991,7 +991,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>18348.8</v>
@@ -1005,7 +1005,7 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>14329.71</v>
@@ -1019,7 +1019,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>30004.79</v>
@@ -1033,7 +1033,7 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <v>13128.68</v>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>24329.6</v>
@@ -1061,7 +1061,7 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>15207.83</v>
@@ -1075,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>23995.33</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <v>23901.44</v>
@@ -1103,7 +1103,7 @@
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>17308.69</v>
@@ -1117,7 +1117,7 @@
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>17516.92</v>
@@ -1159,7 +1159,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>25000</v>
@@ -1173,7 +1173,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>11656.68</v>
@@ -1187,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D42">
         <v>5453.559999999999</v>
@@ -1201,7 +1201,7 @@
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>14935.86</v>
@@ -1215,7 +1215,7 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>16454.08</v>
@@ -1229,7 +1229,7 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45">
         <v>30280.88</v>
@@ -1243,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46">
         <v>12317.58</v>

--- a/payroll_gross_all.xlsx
+++ b/payroll_gross_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>BORJA, MA. ELIZA DELIS</t>
   </si>
   <si>
+    <t>CAPARAS, CHARLES VICTOR EDQUILA</t>
+  </si>
+  <si>
     <t>CAPILLAN, MURIEL TUANQUIN</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>DUNGQUE, MARIA RAYLEN AGANG</t>
   </si>
   <si>
+    <t>ESTOESTA, JOSEPH MADULID</t>
+  </si>
+  <si>
     <t>FERNANDEZ, MARIBETH ANTIQUINA</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t>CORONEJO, JOSEPH BUENO</t>
   </si>
   <si>
-    <t>DELA PASION, RECEL DELIMA</t>
+    <t>DELOS REYES, JOHN CARLO</t>
   </si>
   <si>
     <t>EVANGELISTA, JOSHUA CALINISAN</t>
@@ -145,15 +151,6 @@
     <t>HERMO, GRAZELENE ANNE</t>
   </si>
   <si>
-    <t>LIPIAN, MA. CERLITA</t>
-  </si>
-  <si>
-    <t>MALACAS, JERICO CRUZ</t>
-  </si>
-  <si>
-    <t>MARTEJA, GEORGE DELA TORRE</t>
-  </si>
-  <si>
     <t>REQUISO, MERIAM LICAYAN</t>
   </si>
   <si>
@@ -163,33 +160,6 @@
     <t>SILONG, JIRALP VALDEZ</t>
   </si>
   <si>
-    <t>ANGELES, LEOSELLE ARCENO</t>
-  </si>
-  <si>
-    <t>CORNEL, JOSEPH CUELA</t>
-  </si>
-  <si>
-    <t>CORONEJO, FREDDIE BUENO</t>
-  </si>
-  <si>
-    <t>DELA TORRE, CHERRY BAUTISTA</t>
-  </si>
-  <si>
-    <t>PARTIBLE, OSCAR AGLIAM</t>
-  </si>
-  <si>
-    <t>REY, JOEL SERVILLA</t>
-  </si>
-  <si>
-    <t>ROSALLOSA, MARJHON PONPON</t>
-  </si>
-  <si>
-    <t>JEPOLLO, KIZIA MAE MONTESA</t>
-  </si>
-  <si>
-    <t>NAYANGGA, RICKY GUANDE</t>
-  </si>
-  <si>
     <t>GENERAL COMMON EXPENSE</t>
   </si>
   <si>
@@ -203,6 +173,9 @@
   </si>
   <si>
     <t>WTR</t>
+  </si>
+  <si>
+    <t>MCC</t>
   </si>
   <si>
     <t>ADMIN DEPARTMENT</t>
@@ -599,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>34741.21</v>
+        <v>35066.36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -638,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>17084.42</v>
+        <v>16703.61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -652,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>14378.57</v>
+        <v>12854.94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -666,13 +639,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>19482.8</v>
+        <v>18726.01</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -680,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>18020.93</v>
+        <v>18164.6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -694,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
       </c>
       <c r="D7">
         <v>230000</v>
@@ -708,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>22863.93</v>
+        <v>22951.15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -722,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>18625.18</v>
+        <v>14282.72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -736,13 +709,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>15284.66</v>
+        <v>18817.9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -750,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>25514.43</v>
+        <v>15497.15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -764,13 +737,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>16895.14</v>
+        <v>25004.49</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -778,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>66174.04999999999</v>
+        <v>17741.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -792,13 +765,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>15245.67</v>
+        <v>68870.62000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -806,13 +779,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>20200.12</v>
+        <v>14824.53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -820,13 +793,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>17999.71</v>
+        <v>20336.27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -834,13 +807,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>24196.35</v>
+        <v>19861.11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -848,13 +821,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>125000</v>
+        <v>15287.54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -862,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>230000</v>
+        <v>24452.66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -876,13 +849,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>19850.46</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -890,13 +863,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>24982.37</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -904,13 +877,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>22293.21</v>
+        <v>20120.94</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -918,13 +891,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>15842.23</v>
+        <v>24708.03</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -932,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>17708.77</v>
+        <v>22812.41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -946,13 +919,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>23101.36</v>
+        <v>19748.1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -960,13 +933,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>40187.41</v>
+        <v>17316</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -974,13 +947,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>20250.25</v>
+        <v>21822</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -988,13 +961,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>18348.8</v>
+        <v>39849.84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1002,13 +975,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>14329.71</v>
+        <v>21251.6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1016,13 +989,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>30004.79</v>
+        <v>17980.93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1030,13 +1003,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>13128.68</v>
+        <v>10172.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1044,13 +1017,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
       <c r="D32">
-        <v>24329.6</v>
+        <v>28593.45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1058,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>15207.83</v>
+        <v>13634.47</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1072,13 +1045,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>23995.33</v>
+        <v>23877.41</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1086,13 +1059,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>23901.44</v>
+        <v>17875.2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1100,13 +1073,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36">
-        <v>17308.69</v>
+        <v>23676.49</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1114,13 +1087,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>17516.92</v>
+        <v>24195.39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1128,13 +1101,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>22432.44</v>
+        <v>17786</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1142,237 +1115,209 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>28480.85</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40">
-        <v>25000</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>11656.68</v>
+        <v>9146.959999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>5453.559999999999</v>
+        <v>27995.53</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>14935.86</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44">
-        <v>16454.08</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45">
-        <v>30280.88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46">
-        <v>12317.58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
       <c r="D47">
-        <v>7628.18</v>
+        <v>15947.19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>8471.58</v>
+        <v>29477.06</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>13334.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49">
-        <v>26582.64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50">
-        <v>27927.98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51">
-        <v>13964.02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52">
-        <v>14209.34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53">
-        <v>14119.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54">
-        <v>6155.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55">
-        <v>13785.3</v>
+      <c r="C59" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
